--- a/static/reports/book_database.xlsx
+++ b/static/reports/book_database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,109 +421,195 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Author</t>
+          <t>Book_Title</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>current_date</t>
+          <t>Book_Reserve_Date</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>return_date</t>
+          <t>Book_Approve_Date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Book_Return_Date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Book_Approval_Status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Be Kind</t>
+          <t>SimantiniNalawade</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pat Zietlow Miller</t>
+          <t>Diary Of Wimpy Kids</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/01/2023, 14:39:29</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>08/24/2023, 12:42:53</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08/24/2023, 12:42:57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-08-31 12:42:57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pete The Cat</t>
+          <t>SimantiniNalawade</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eric Litwin, James Dean, and Kimberly Dean</t>
+          <t>Be Kind</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08/01/2023, 15:12:38</t>
+          <t>08/24/2023, 12:01:16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-08-08 15:12:38</t>
+          <t>08/24/2023, 15:06:17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-08-31 15:06:17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Approved</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Diary Of Wimpy Kids</t>
+          <t>AdvayNalawade</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jeff Kinney</t>
+          <t>Be Kind</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08/01/2023, 15:11:13</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>08/24/2023, 12:01:16</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>08/24/2023, 15:06:17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-08-31 15:06:17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>When My Parents Forget To Be A Friend</t>
+          <t>AjayNalawade</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jennifer Moore-Mallinos</t>
+          <t>Be Kind</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08/01/2023, 15:11:28</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>08/24/2023, 12:40:32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Waiting</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AjayNalawade</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pete The Cat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08/24/2023, 15:04:48</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>08/24/2023, 15:05:12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-08-31 15:05:12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
